--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,27 +49,33 @@
     <t>poor</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
@@ -79,12 +85,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -94,24 +94,18 @@
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
@@ -121,48 +115,54 @@
     <t>like</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>game</t>
@@ -539,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -608,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -626,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -679,16 +676,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.8494623655913979</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L4">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -700,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -708,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -726,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.8461538461538461</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -750,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -758,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.703125</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L6">
         <v>39</v>
       </c>
-      <c r="K6">
-        <v>0.75</v>
-      </c>
-      <c r="L6">
-        <v>48</v>
-      </c>
       <c r="M6">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -800,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -808,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6881720430107527</v>
+        <v>0.6875</v>
       </c>
       <c r="C7">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -826,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.71875</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -850,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -858,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6283783783783784</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.5667144906743186</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L8">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>395</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -900,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>302</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -908,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6116504854368932</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C9">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -926,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.5507246376811594</v>
+        <v>0.5624103299856528</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>392</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -950,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -958,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -976,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.5103734439834025</v>
+        <v>0.5145228215767634</v>
       </c>
       <c r="L10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M10">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1000,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1008,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1026,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.4614754098360656</v>
+        <v>0.4581967213114754</v>
       </c>
       <c r="L11">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="M11">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1050,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1058,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4869565217391305</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C12">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D12">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1076,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.3915343915343915</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="L12">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="M12">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1100,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>115</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1108,13 +1105,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4578313253012048</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C13">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1126,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>76</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="K13">
-        <v>0.3700305810397553</v>
+        <v>0.35</v>
       </c>
       <c r="L13">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>206</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1158,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4028436018957346</v>
+        <v>0.4</v>
       </c>
       <c r="C14">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1176,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1200,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>80</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1208,13 +1205,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.375</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1226,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.3313253012048193</v>
+        <v>0.3192771084337349</v>
       </c>
       <c r="L15">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1258,13 +1255,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3622047244094488</v>
+        <v>0.3601895734597156</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1276,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.1935483870967742</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1300,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>150</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1308,13 +1305,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3473684210526316</v>
+        <v>0.3359375</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1326,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.1887550200803213</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1350,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>202</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1358,13 +1355,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2722772277227723</v>
+        <v>0.2623762376237624</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1376,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18">
-        <v>0.1428571428571428</v>
+        <v>0.176706827309237</v>
       </c>
       <c r="L18">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1400,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>978</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1408,13 +1405,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2061855670103093</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1426,31 +1423,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.1016042780748663</v>
+        <v>0.156140350877193</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>336</v>
+        <v>962</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1666666666666667</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C20">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D20">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1476,31 +1473,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.07407407407407407</v>
+        <v>0.07532467532467532</v>
       </c>
       <c r="L20">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M20">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1508,13 +1505,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1613924050632911</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C21">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="D21">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1526,31 +1523,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>265</v>
+        <v>558</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.044</v>
+        <v>0.04005340453938585</v>
       </c>
       <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
         <v>33</v>
       </c>
-      <c r="M21">
-        <v>35</v>
-      </c>
       <c r="N21">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="O21">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1558,25 +1555,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1613832853025937</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E22">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1584,13 +1581,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1588785046728972</v>
+        <v>0.1360759493670886</v>
       </c>
       <c r="C23">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1602,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>180</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1610,25 +1607,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1543026706231454</v>
+        <v>0.1268011527377522</v>
       </c>
       <c r="C24">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>570</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1636,13 +1633,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.129746835443038</v>
+        <v>0.1167400881057269</v>
       </c>
       <c r="C25">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D25">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1654,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>275</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1662,13 +1659,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1235955056179775</v>
+        <v>0.07572383073496659</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1680,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>234</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1688,25 +1685,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1211453744493392</v>
+        <v>0.05930807248764415</v>
       </c>
       <c r="C27">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>399</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1714,51 +1711,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06919642857142858</v>
+        <v>0.0432020330368488</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>0.03</v>
+        <v>0.17</v>
       </c>
       <c r="F28">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.05766062602965404</v>
-      </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>36</v>
-      </c>
-      <c r="E29">
-        <v>0.03</v>
-      </c>
-      <c r="F29">
-        <v>0.97</v>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>572</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
